--- a/app/img/invoice.xlsx
+++ b/app/img/invoice.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="Евро" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -126,11 +131,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,29 +215,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -240,36 +245,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -277,128 +282,128 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,21 +413,9 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -436,21 +429,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,22 +445,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -488,6 +466,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -497,26 +484,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,90 +816,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:H23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:8" ht="16">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -902,250 +907,268 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:8" ht="24">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <f>F14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13">
+        <f>F14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" thickBot="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A19" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>35000</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <f>F14</f>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21">
-        <f>F14</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
-        <v>35000</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="37">
-        <v>25</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="34"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="40" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="34"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="A26:E26"/>
@@ -1154,27 +1177,14 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>